--- a/dataTest/Data_testCheckAccount.xlsx
+++ b/dataTest/Data_testCheckAccount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA_CODE\selenium_testcase\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D138A37F-C70B-4A9E-A9DF-159F0D204514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7BE334-A7C9-4504-9DBC-DA70222721BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>No</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Cong2002</t>
   </si>
   <si>
-    <t>Cong200</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
@@ -61,13 +58,46 @@
   </si>
   <si>
     <t>Nữ</t>
+  </si>
+  <si>
+    <t>anhdung2107</t>
+  </si>
+  <si>
+    <t>Phạm Đỗ Việt Dũng</t>
+  </si>
+  <si>
+    <t>21/07/2002</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh</t>
+  </si>
+  <si>
+    <t>Lê Xuân Minh Công</t>
+  </si>
+  <si>
+    <t>05/02/2002</t>
+  </si>
+  <si>
+    <t>16/05/2001</t>
+  </si>
+  <si>
+    <t>Đinh Văn Thức</t>
+  </si>
+  <si>
+    <t>13/08/2002</t>
+  </si>
+  <si>
+    <t>05022002</t>
+  </si>
+  <si>
+    <t>011605</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,12 +112,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -104,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,12 +151,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -140,9 +180,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +471,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" activeCellId="1" sqref="A5 D7"/>
+      <selection activeCell="A11" sqref="A7:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,132 +480,146 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="41.140625" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20010891</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20010886</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20010886</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>19010029</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20010939</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>20010886</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20010886</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="B6" s="2">
+        <v>20010927</v>
+      </c>
+      <c r="C6" s="7">
+        <v>13082002</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>20010886</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTest/Data_testCheckAccount.xlsx
+++ b/dataTest/Data_testCheckAccount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA_CODE\selenium_testcase\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7BE334-A7C9-4504-9DBC-DA70222721BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3629F1DD-0DC8-4B04-B919-8DEF9327E464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>No</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Nữ</t>
   </si>
   <si>
-    <t>anhdung2107</t>
-  </si>
-  <si>
     <t>Phạm Đỗ Việt Dũng</t>
   </si>
   <si>
@@ -87,10 +84,16 @@
     <t>13/08/2002</t>
   </si>
   <si>
-    <t>05022002</t>
-  </si>
-  <si>
-    <t>011605</t>
+    <t>thanh123</t>
+  </si>
+  <si>
+    <t>lecong1</t>
+  </si>
+  <si>
+    <t>thuc123</t>
+  </si>
+  <si>
+    <t>anhdung210702</t>
   </si>
 </sst>
 </file>
@@ -471,14 +474,14 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A7:A11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15" style="6" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="41.140625" customWidth="1"/>
@@ -493,7 +496,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -513,14 +516,14 @@
       <c r="B2" s="2">
         <v>20010891</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
@@ -533,7 +536,7 @@
       <c r="B3" s="2">
         <v>20010886</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -553,14 +556,14 @@
       <c r="B4" s="2">
         <v>19010029</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>21</v>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>10</v>
@@ -573,14 +576,14 @@
       <c r="B5" s="2">
         <v>20010939</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>4</v>
@@ -593,14 +596,14 @@
       <c r="B6" s="2">
         <v>20010927</v>
       </c>
-      <c r="C6" s="7">
-        <v>13082002</v>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>4</v>
@@ -614,6 +617,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>

--- a/dataTest/Data_testCheckAccount.xlsx
+++ b/dataTest/Data_testCheckAccount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA_CODE\selenium_testcase\dataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3629F1DD-0DC8-4B04-B919-8DEF9327E464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F4B110-1331-4C57-98CA-AF48BE03E958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +115,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -171,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,6 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,7 +481,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -565,7 +572,7 @@
       <c r="E4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
